--- a/matlab/statistics/MeanLthdRanalysis.xlsx
+++ b/matlab/statistics/MeanLthdRanalysis.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0BF6FB-D885-4743-AA08-2C4C5CD3329E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FDD9E8-353B-4E2E-94C4-610F5E16068B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -111,19 +111,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,19 +406,20 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:P18"/>
+      <selection activeCell="G2" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -458,8 +458,12 @@
       <c r="F2" s="4">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <f>E2-F2</f>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -478,8 +482,12 @@
       <c r="F3" s="4">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="0">E3-F3</f>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -498,8 +506,12 @@
       <c r="F4" s="4">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -518,8 +530,12 @@
       <c r="F5" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -538,9 +554,13 @@
       <c r="F6" s="4">
         <v>4.8</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>48.1</v>
+      </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -559,8 +579,12 @@
       <c r="F7" s="4">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -579,8 +603,12 @@
       <c r="F8" s="4">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>19.400000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -599,8 +627,12 @@
       <c r="F9" s="4">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>19.400000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -619,8 +651,12 @@
       <c r="F10" s="4">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -639,8 +675,12 @@
       <c r="F11" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -659,8 +699,12 @@
       <c r="F12" s="4">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -679,20 +723,20 @@
       <c r="F13" s="4">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -702,61 +746,24 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="10:17" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="10:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="10:17" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="10:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="10:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+    </row>
+    <row r="21" spans="10:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
